--- a/logical-functions-gjm-finish.xlsx
+++ b/logical-functions-gjm-finish.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\mastering-excel-formulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\hsbc-if-functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CFB25B-4EBC-4AB1-BD3B-DF6F3614C4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E83D47-B6CF-400E-887F-680523AAC439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="1275" windowWidth="14040" windowHeight="9083" xr2:uid="{10F93473-B6B8-404C-A8E1-8F56B0329D91}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{10F93473-B6B8-404C-A8E1-8F56B0329D91}"/>
   </bookViews>
   <sheets>
     <sheet name="commissions" sheetId="10" r:id="rId1"/>
@@ -427,7 +427,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -483,11 +483,14 @@
     <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1635,7 +1638,7 @@
         <f>SUMIF(F2:F16,"A",B2:B16)</f>
         <v>549391</v>
       </c>
-      <c r="C21" s="24" t="str">
+      <c r="C21" s="23" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B21)</f>
         <v>=SUMIF(F2:F16,"A",B2:B16)</v>
       </c>
@@ -1648,7 +1651,7 @@
         <f>COUNTIF(C2:C16,"&gt;50")</f>
         <v>3</v>
       </c>
-      <c r="C22" s="24" t="str">
+      <c r="C22" s="23" t="str">
         <f t="shared" ref="C22:C28" ca="1" si="6">_xlfn.FORMULATEXT(B22)</f>
         <v>=COUNTIF(C2:C16,"&gt;50")</v>
       </c>
@@ -1662,7 +1665,7 @@
         <f>AVERAGEIF(H2:H16,"&gt; 4.7",L2:L16)</f>
         <v>8281.1999999999989</v>
       </c>
-      <c r="C23" s="24" t="str">
+      <c r="C23" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>=AVERAGEIF(H2:H16,"&gt; 4.7",L2:L16)</v>
       </c>
@@ -1675,13 +1678,13 @@
         <f>AVERAGEIF(H2:H16,"&gt;= 4.7",L2:L16)</f>
         <v>8706.2749999999996</v>
       </c>
-      <c r="C24" s="24" t="str">
+      <c r="C24" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>=AVERAGEIF(H2:H16,"&gt;= 4.7",L2:L16)</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
@@ -1691,7 +1694,7 @@
         <f>COUNTIFS(L2:L16,"&gt;5000",H2:H16,"&gt;4.5",C2:C16,"&gt;50")</f>
         <v>2</v>
       </c>
-      <c r="C26" s="24" t="str">
+      <c r="C26" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>=COUNTIFS(L2:L16,"&gt;5000",H2:H16,"&gt;4.5",C2:C16,"&gt;50")</v>
       </c>
@@ -1704,7 +1707,7 @@
         <f>SUMIFS(L2:L16,E2:E16,4,B2:B16,"&gt;50000")</f>
         <v>7835.91</v>
       </c>
-      <c r="C27" s="24" t="str">
+      <c r="C27" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>=SUMIFS(L2:L16,E2:E16,4,B2:B16,"&gt;50000")</v>
       </c>
@@ -1717,13 +1720,13 @@
         <f>AVERAGEIFS(L2:L16,C2:C16,"&lt;50",H2:H16,"&gt;4.0")</f>
         <v>6216.1785714285716</v>
       </c>
-      <c r="C28" s="24" t="str">
+      <c r="C28" s="23" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>=AVERAGEIFS(L2:L16,C2:C16,"&lt;50",H2:H16,"&gt;4.0")</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C29" s="24"/>
+      <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C30" s="6"/>
@@ -1748,7 +1751,7 @@
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.31640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.1796875" style="8" customWidth="1"/>
     <col min="5" max="5" width="8.26953125" style="7" bestFit="1" customWidth="1"/>
@@ -1800,7 +1803,10 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="21" t="str">
+        <f>IF(A2="P", "Pixar", "Dreamworks")</f>
+        <v>Pixar</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1819,15 +1825,33 @@
       <c r="H2" s="6">
         <v>96</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
+      <c r="I2" s="20" t="str" cm="1">
+        <f t="array" ref="I2">_xlfn.IFS(
+    H2 &gt;= 90, "A",
+    H2 &gt;= 80, "B",
+    H2 &gt;= 70, "C",
+    H2 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>A</v>
+      </c>
+      <c r="J2" s="20" t="str">
+        <f>IF(AND(F2 &gt; 500000000, H2 &gt; 90), "Hit", "")</f>
+        <v/>
+      </c>
+      <c r="K2" s="20" t="str">
+        <f>IF(OR(F2 &lt; 350000000, I2 &lt; 50), "Dud", "")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="21" t="str">
+        <f t="shared" ref="B3:B42" si="0">IF(A3="P", "Pixar", "Dreamworks")</f>
+        <v>Pixar</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
@@ -1846,16 +1870,34 @@
       <c r="H3" s="6">
         <v>84.5</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
+      <c r="I3" s="20" t="str" cm="1">
+        <f t="array" ref="I3">_xlfn.IFS(
+    H3 &gt;= 90, "A",
+    H3 &gt;= 80, "B",
+    H3 &gt;= 70, "C",
+    H3 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>B</v>
+      </c>
+      <c r="J3" s="20" t="str">
+        <f t="shared" ref="J3:J42" si="1">IF(AND(F3 &gt; 500000000, H3 &gt; 90), "Hit", "")</f>
+        <v/>
+      </c>
+      <c r="K3" s="20" t="str">
+        <f t="shared" ref="K3:K42" si="2">IF(OR(F3 &lt; 350000000, I3 &lt; 50), "Dud", "")</f>
+        <v/>
+      </c>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1874,15 +1916,33 @@
       <c r="H4" s="6">
         <v>71.5</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
+      <c r="I4" s="20" t="str" cm="1">
+        <f t="array" ref="I4">_xlfn.IFS(
+    H4 &gt;= 90, "A",
+    H4 &gt;= 80, "B",
+    H4 &gt;= 70, "C",
+    H4 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>C</v>
+      </c>
+      <c r="J4" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K4" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>Dud</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1901,15 +1961,33 @@
       <c r="H5" s="6">
         <v>94</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
+      <c r="I5" s="20" t="str" cm="1">
+        <f t="array" ref="I5">_xlfn.IFS(
+    H5 &gt;= 90, "A",
+    H5 &gt;= 80, "B",
+    H5 &gt;= 70, "C",
+    H5 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>A</v>
+      </c>
+      <c r="J5" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K5" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1928,15 +2006,33 @@
       <c r="H6" s="6">
         <v>50</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="20" t="str" cm="1">
+        <f t="array" ref="I6">_xlfn.IFS(
+    H6 &gt;= 90, "A",
+    H6 &gt;= 80, "B",
+    H6 &gt;= 70, "C",
+    H6 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>F</v>
+      </c>
+      <c r="J6" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K6" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>Dud</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1955,15 +2051,33 @@
       <c r="H7" s="6">
         <v>92.5</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="I7" s="20" t="str" cm="1">
+        <f t="array" ref="I7">_xlfn.IFS(
+    H7 &gt;= 90, "A",
+    H7 &gt;= 80, "B",
+    H7 &gt;= 70, "C",
+    H7 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>A</v>
+      </c>
+      <c r="J7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K7" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>Dud</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1982,15 +2096,33 @@
       <c r="H8" s="6">
         <v>86</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+      <c r="I8" s="20" t="str" cm="1">
+        <f t="array" ref="I8">_xlfn.IFS(
+    H8 &gt;= 90, "A",
+    H8 &gt;= 80, "B",
+    H8 &gt;= 70, "C",
+    H8 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>B</v>
+      </c>
+      <c r="J8" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K8" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
@@ -2009,15 +2141,33 @@
       <c r="H9" s="6">
         <v>87</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="I9" s="20" t="str" cm="1">
+        <f t="array" ref="I9">_xlfn.IFS(
+    H9 &gt;= 90, "A",
+    H9 &gt;= 80, "B",
+    H9 &gt;= 70, "C",
+    H9 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>B</v>
+      </c>
+      <c r="J9" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K9" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
@@ -2036,15 +2186,33 @@
       <c r="H10" s="6">
         <v>60.5</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="I10" s="20" t="str" cm="1">
+        <f t="array" ref="I10">_xlfn.IFS(
+    H10 &gt;= 90, "A",
+    H10 &gt;= 80, "B",
+    H10 &gt;= 70, "C",
+    H10 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>D</v>
+      </c>
+      <c r="J10" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K10" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>Dud</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
@@ -2063,15 +2231,33 @@
       <c r="H11" s="6">
         <v>94.5</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="I11" s="20" t="str" cm="1">
+        <f t="array" ref="I11">_xlfn.IFS(
+    H11 &gt;= 90, "A",
+    H11 &gt;= 80, "B",
+    H11 &gt;= 70, "C",
+    H11 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>A</v>
+      </c>
+      <c r="J11" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Hit</v>
+      </c>
+      <c r="K11" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2090,15 +2276,33 @@
       <c r="H12" s="6">
         <v>46.5</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="I12" s="20" t="str" cm="1">
+        <f t="array" ref="I12">_xlfn.IFS(
+    H12 &gt;= 90, "A",
+    H12 &gt;= 80, "B",
+    H12 &gt;= 70, "C",
+    H12 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>F</v>
+      </c>
+      <c r="J12" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K12" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>Dud</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
@@ -2117,15 +2321,33 @@
       <c r="H13" s="6">
         <v>82</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
+      <c r="I13" s="20" t="str" cm="1">
+        <f t="array" ref="I13">_xlfn.IFS(
+    H13 &gt;= 90, "A",
+    H13 &gt;= 80, "B",
+    H13 &gt;= 70, "C",
+    H13 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>B</v>
+      </c>
+      <c r="J13" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K13" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
@@ -2144,15 +2366,33 @@
       <c r="H14" s="6">
         <v>42</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
+      <c r="I14" s="20" t="str" cm="1">
+        <f t="array" ref="I14">_xlfn.IFS(
+    H14 &gt;= 90, "A",
+    H14 &gt;= 80, "B",
+    H14 &gt;= 70, "C",
+    H14 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>F</v>
+      </c>
+      <c r="J14" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K14" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2171,15 +2411,33 @@
       <c r="H15" s="6">
         <v>93.5</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
+      <c r="I15" s="20" t="str" cm="1">
+        <f t="array" ref="I15">_xlfn.IFS(
+    H15 &gt;= 90, "A",
+    H15 &gt;= 80, "B",
+    H15 &gt;= 70, "C",
+    H15 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>A</v>
+      </c>
+      <c r="J15" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Hit</v>
+      </c>
+      <c r="K15" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
@@ -2198,15 +2456,33 @@
       <c r="H16" s="6">
         <v>56</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
+      <c r="I16" s="20" t="str" cm="1">
+        <f t="array" ref="I16">_xlfn.IFS(
+    H16 &gt;= 90, "A",
+    H16 &gt;= 80, "B",
+    H16 &gt;= 70, "C",
+    H16 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>F</v>
+      </c>
+      <c r="J16" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K16" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2225,15 +2501,33 @@
       <c r="H17" s="6">
         <v>91</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
+      <c r="I17" s="20" t="str" cm="1">
+        <f t="array" ref="I17">_xlfn.IFS(
+    H17 &gt;= 90, "A",
+    H17 &gt;= 80, "B",
+    H17 &gt;= 70, "C",
+    H17 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>A</v>
+      </c>
+      <c r="J17" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K17" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>Dud</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2252,15 +2546,33 @@
       <c r="H18" s="6">
         <v>71</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
+      <c r="I18" s="20" t="str" cm="1">
+        <f t="array" ref="I18">_xlfn.IFS(
+    H18 &gt;= 90, "A",
+    H18 &gt;= 80, "B",
+    H18 &gt;= 70, "C",
+    H18 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>C</v>
+      </c>
+      <c r="J18" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K18" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>Dud</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
@@ -2279,15 +2591,33 @@
       <c r="H19" s="6">
         <v>73.5</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
+      <c r="I19" s="20" t="str" cm="1">
+        <f t="array" ref="I19">_xlfn.IFS(
+    H19 &gt;= 90, "A",
+    H19 &gt;= 80, "B",
+    H19 &gt;= 70, "C",
+    H19 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>C</v>
+      </c>
+      <c r="J19" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K19" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2306,15 +2636,33 @@
       <c r="H20" s="6">
         <v>73</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
+      <c r="I20" s="20" t="str" cm="1">
+        <f t="array" ref="I20">_xlfn.IFS(
+    H20 &gt;= 90, "A",
+    H20 &gt;= 80, "B",
+    H20 &gt;= 70, "C",
+    H20 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>C</v>
+      </c>
+      <c r="J20" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K20" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>Dud</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
@@ -2333,15 +2681,33 @@
       <c r="H21" s="6">
         <v>49</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
+      <c r="I21" s="20" t="str" cm="1">
+        <f t="array" ref="I21">_xlfn.IFS(
+    H21 &gt;= 90, "A",
+    H21 &gt;= 80, "B",
+    H21 &gt;= 70, "C",
+    H21 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>F</v>
+      </c>
+      <c r="J21" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K21" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2360,15 +2726,33 @@
       <c r="H22" s="6">
         <v>96</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
+      <c r="I22" s="20" t="str" cm="1">
+        <f t="array" ref="I22">_xlfn.IFS(
+    H22 &gt;= 90, "A",
+    H22 &gt;= 80, "B",
+    H22 &gt;= 70, "C",
+    H22 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>A</v>
+      </c>
+      <c r="J22" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Hit</v>
+      </c>
+      <c r="K22" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
@@ -2387,15 +2771,33 @@
       <c r="H23" s="6">
         <v>52.5</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
+      <c r="I23" s="20" t="str" cm="1">
+        <f t="array" ref="I23">_xlfn.IFS(
+    H23 &gt;= 90, "A",
+    H23 &gt;= 80, "B",
+    H23 &gt;= 70, "C",
+    H23 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>F</v>
+      </c>
+      <c r="J23" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K23" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>Dud</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2414,15 +2816,33 @@
       <c r="H24" s="6">
         <v>80</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
+      <c r="I24" s="20" t="str" cm="1">
+        <f t="array" ref="I24">_xlfn.IFS(
+    H24 &gt;= 90, "A",
+    H24 &gt;= 80, "B",
+    H24 &gt;= 70, "C",
+    H24 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>B</v>
+      </c>
+      <c r="J24" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K24" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>21</v>
       </c>
@@ -2441,15 +2861,33 @@
       <c r="H25" s="6">
         <v>95</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
+      <c r="I25" s="20" t="str" cm="1">
+        <f t="array" ref="I25">_xlfn.IFS(
+    H25 &gt;= 90, "A",
+    H25 &gt;= 80, "B",
+    H25 &gt;= 70, "C",
+    H25 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>A</v>
+      </c>
+      <c r="J25" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Hit</v>
+      </c>
+      <c r="K25" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -2468,15 +2906,33 @@
       <c r="H26" s="6">
         <v>62.5</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
+      <c r="I26" s="20" t="str" cm="1">
+        <f t="array" ref="I26">_xlfn.IFS(
+    H26 &gt;= 90, "A",
+    H26 &gt;= 80, "B",
+    H26 &gt;= 70, "C",
+    H26 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>D</v>
+      </c>
+      <c r="J26" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K26" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
@@ -2495,15 +2951,33 @@
       <c r="H27" s="6">
         <v>64</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="21"/>
+      <c r="I27" s="20" t="str" cm="1">
+        <f t="array" ref="I27">_xlfn.IFS(
+    H27 &gt;= 90, "A",
+    H27 &gt;= 80, "B",
+    H27 &gt;= 70, "C",
+    H27 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>D</v>
+      </c>
+      <c r="J27" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K27" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>18</v>
       </c>
@@ -2522,15 +2996,33 @@
       <c r="H28" s="6">
         <v>93</v>
       </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
+      <c r="I28" s="20" t="str" cm="1">
+        <f t="array" ref="I28">_xlfn.IFS(
+    H28 &gt;= 90, "A",
+    H28 &gt;= 80, "B",
+    H28 &gt;= 70, "C",
+    H28 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>A</v>
+      </c>
+      <c r="J28" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Hit</v>
+      </c>
+      <c r="K28" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>17</v>
       </c>
@@ -2549,15 +3041,33 @@
       <c r="H29" s="6">
         <v>86</v>
       </c>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
+      <c r="I29" s="20" t="str" cm="1">
+        <f t="array" ref="I29">_xlfn.IFS(
+    H29 &gt;= 90, "A",
+    H29 &gt;= 80, "B",
+    H29 &gt;= 70, "C",
+    H29 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>B</v>
+      </c>
+      <c r="J29" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K29" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
@@ -2576,15 +3086,33 @@
       <c r="H30" s="6">
         <v>58</v>
       </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="21"/>
+      <c r="I30" s="20" t="str" cm="1">
+        <f t="array" ref="I30">_xlfn.IFS(
+    H30 &gt;= 90, "A",
+    H30 &gt;= 80, "B",
+    H30 &gt;= 70, "C",
+    H30 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>F</v>
+      </c>
+      <c r="J30" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K30" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>15</v>
       </c>
@@ -2603,15 +3131,33 @@
       <c r="H31" s="6">
         <v>95.5</v>
       </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="21"/>
+      <c r="I31" s="20" t="str" cm="1">
+        <f t="array" ref="I31">_xlfn.IFS(
+    H31 &gt;= 90, "A",
+    H31 &gt;= 80, "B",
+    H31 &gt;= 70, "C",
+    H31 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>A</v>
+      </c>
+      <c r="J31" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Hit</v>
+      </c>
+      <c r="K31" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>14</v>
       </c>
@@ -2630,15 +3176,33 @@
       <c r="H32" s="6">
         <v>68</v>
       </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
+      <c r="I32" s="20" t="str" cm="1">
+        <f t="array" ref="I32">_xlfn.IFS(
+    H32 &gt;= 90, "A",
+    H32 &gt;= 80, "B",
+    H32 &gt;= 70, "C",
+    H32 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>D</v>
+      </c>
+      <c r="J32" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K32" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>Dud</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>13</v>
       </c>
@@ -2657,15 +3221,33 @@
       <c r="H33" s="6">
         <v>74</v>
       </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
+      <c r="I33" s="20" t="str" cm="1">
+        <f t="array" ref="I33">_xlfn.IFS(
+    H33 &gt;= 90, "A",
+    H33 &gt;= 80, "B",
+    H33 &gt;= 70, "C",
+    H33 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>C</v>
+      </c>
+      <c r="J33" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K33" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
@@ -2684,15 +3266,33 @@
       <c r="H34" s="6">
         <v>48</v>
       </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="21"/>
+      <c r="I34" s="20" t="str" cm="1">
+        <f t="array" ref="I34">_xlfn.IFS(
+    H34 &gt;= 90, "A",
+    H34 &gt;= 80, "B",
+    H34 &gt;= 70, "C",
+    H34 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>F</v>
+      </c>
+      <c r="J34" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K34" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="21"/>
+      <c r="B35" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
@@ -2711,15 +3311,33 @@
       <c r="H35" s="6">
         <v>74.5</v>
       </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="21"/>
+      <c r="I35" s="20" t="str" cm="1">
+        <f t="array" ref="I35">_xlfn.IFS(
+    H35 &gt;= 90, "A",
+    H35 &gt;= 80, "B",
+    H35 &gt;= 70, "C",
+    H35 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>C</v>
+      </c>
+      <c r="J35" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K35" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
@@ -2738,15 +3356,33 @@
       <c r="H36" s="6">
         <v>69.5</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
+      <c r="I36" s="20" t="str" cm="1">
+        <f t="array" ref="I36">_xlfn.IFS(
+    H36 &gt;= 90, "A",
+    H36 &gt;= 80, "B",
+    H36 &gt;= 70, "C",
+    H36 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>D</v>
+      </c>
+      <c r="J36" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K36" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>9</v>
       </c>
@@ -2765,15 +3401,33 @@
       <c r="H37" s="6">
         <v>73.5</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
+      <c r="I37" s="20" t="str" cm="1">
+        <f t="array" ref="I37">_xlfn.IFS(
+    H37 &gt;= 90, "A",
+    H37 &gt;= 80, "B",
+    H37 &gt;= 70, "C",
+    H37 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>C</v>
+      </c>
+      <c r="J37" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K37" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="21"/>
+      <c r="B38" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2792,15 +3446,33 @@
       <c r="H38" s="6">
         <v>65.5</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="21"/>
+      <c r="I38" s="20" t="str" cm="1">
+        <f t="array" ref="I38">_xlfn.IFS(
+    H38 &gt;= 90, "A",
+    H38 &gt;= 80, "B",
+    H38 &gt;= 70, "C",
+    H38 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>D</v>
+      </c>
+      <c r="J38" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K38" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>Dud</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="21"/>
+      <c r="B39" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
@@ -2819,15 +3491,33 @@
       <c r="H39" s="6">
         <v>62.5</v>
       </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="21"/>
+      <c r="I39" s="20" t="str" cm="1">
+        <f t="array" ref="I39">_xlfn.IFS(
+    H39 &gt;= 90, "A",
+    H39 &gt;= 80, "B",
+    H39 &gt;= 70, "C",
+    H39 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>D</v>
+      </c>
+      <c r="J39" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K39" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="21"/>
+      <c r="B40" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Pixar</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
@@ -2846,15 +3536,33 @@
       <c r="H40" s="6">
         <v>71.5</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
+      <c r="I40" s="20" t="str" cm="1">
+        <f t="array" ref="I40">_xlfn.IFS(
+    H40 &gt;= 90, "A",
+    H40 &gt;= 80, "B",
+    H40 &gt;= 70, "C",
+    H40 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>C</v>
+      </c>
+      <c r="J40" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K40" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
@@ -2873,15 +3581,33 @@
       <c r="H41" s="6">
         <v>62.5</v>
       </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
+      <c r="I41" s="20" t="str" cm="1">
+        <f t="array" ref="I41">_xlfn.IFS(
+    H41 &gt;= 90, "A",
+    H41 &gt;= 80, "B",
+    H41 &gt;= 70, "C",
+    H41 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>D</v>
+      </c>
+      <c r="J41" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K41" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>Dud</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="21"/>
+      <c r="B42" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Dreamworks</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2900,9 +3626,24 @@
       <c r="H42" s="6">
         <v>69</v>
       </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="21"/>
+      <c r="I42" s="20" t="str" cm="1">
+        <f t="array" ref="I42">_xlfn.IFS(
+    H42 &gt;= 90, "A",
+    H42 &gt;= 80, "B",
+    H42 &gt;= 70, "C",
+    H42 &gt;= 60, "D",
+    TRUE, "F"
+)</f>
+        <v>D</v>
+      </c>
+      <c r="J42" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K42" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>Dud</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
@@ -2916,21 +3657,44 @@
       <c r="A45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="B45" s="9">
+        <f>AVERAGEIF(A2:A42, B44, H2:H42)</f>
+        <v>85.392857142857139</v>
+      </c>
+      <c r="C45" s="9">
+        <f>AVERAGEIF(A2:A42, C44, H2:H42)</f>
+        <v>67.388888888888886</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
+      <c r="B46" s="9">
+        <f>AVERAGEIFS(H2:H42, A2:A42, B44, D2:D42, "&gt;=1/1/2010")</f>
+        <v>72.125</v>
+      </c>
+      <c r="C46" s="9">
+        <f>AVERAGEIFS(H2:H42, A2:A42, C44, D2:D42, "&gt;=1/1/2010")</f>
+        <v>68.95</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="23"/>
+      <c r="B48" s="25">
+        <f>COUNTIFS(F2:F42, "&gt;500000000", A2:A42, "P")</f>
+        <v>10</v>
+      </c>
+      <c r="C48" s="25">
+        <f>COUNTIF(A2:A42, "P")</f>
+        <v>14</v>
+      </c>
+      <c r="D48" s="24">
+        <f>B48/C48</f>
+        <v>0.7142857142857143</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3213,9 +3977,29 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{354BC4F4-D05D-4801-913E-A1D5BC8A9648}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{354BC4F4-D05D-4801-913E-A1D5BC8A9648}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="26d2fa48-a9bb-4686-8122-5406e5c0c038"/>
+    <ds:schemaRef ds:uri="059fecdb-ee26-4135-81c8-712a955c51df"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6141598A-7860-4E9D-83A5-FE862628B710}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6141598A-7860-4E9D-83A5-FE862628B710}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>